--- a/Senin/Basis Data/Minggu 9 - (PHISICAL ERD)/ERD Fisik.xlsx
+++ b/Senin/Basis Data/Minggu 9 - (PHISICAL ERD)/ERD Fisik.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>username</t>
   </si>
@@ -43,115 +43,118 @@
     <t>email</t>
   </si>
   <si>
-    <t>nama lengkap</t>
-  </si>
-  <si>
-    <t>tanggal lahir</t>
-  </si>
-  <si>
     <t>nik</t>
   </si>
   <si>
-    <t>no telepon</t>
-  </si>
-  <si>
     <t>foto</t>
   </si>
   <si>
     <t>jabatan</t>
   </si>
   <si>
-    <t>penjualan kode transaksi</t>
-  </si>
-  <si>
-    <t>penjualan total harga</t>
-  </si>
-  <si>
-    <t>penjualan waktu</t>
-  </si>
-  <si>
-    <t>id jabatan</t>
-  </si>
-  <si>
-    <t>id user</t>
-  </si>
-  <si>
-    <t>id penjualan</t>
-  </si>
-  <si>
-    <t>nama jabatan</t>
-  </si>
-  <si>
-    <t>id penjualan data</t>
-  </si>
-  <si>
-    <t>id barang data</t>
-  </si>
-  <si>
-    <t>penjualan jumlah</t>
-  </si>
-  <si>
-    <t>id pengadaan</t>
-  </si>
-  <si>
     <t>id suplier</t>
   </si>
   <si>
-    <t>pengadaan kode transaksi</t>
-  </si>
-  <si>
-    <t>pengadaan waktu</t>
-  </si>
-  <si>
-    <t>suplier nama</t>
-  </si>
-  <si>
-    <t>suplier alamat</t>
-  </si>
-  <si>
-    <t>suplier no telp</t>
-  </si>
-  <si>
-    <t>suplier email</t>
-  </si>
-  <si>
-    <t>suplier tanggal registrasi</t>
-  </si>
-  <si>
-    <t>suplier kode</t>
-  </si>
-  <si>
-    <t>id pengadaan data</t>
-  </si>
-  <si>
-    <t>pengadaan data jumlah</t>
-  </si>
-  <si>
-    <t>id barang jenis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id suplier </t>
-  </si>
-  <si>
-    <t>barang nama</t>
-  </si>
-  <si>
-    <t>barang kode</t>
-  </si>
-  <si>
-    <t>barang harga</t>
-  </si>
-  <si>
-    <t>barang tanggal kadaluarsa</t>
-  </si>
-  <si>
-    <t>barang stok</t>
-  </si>
-  <si>
-    <t>barang diskon</t>
-  </si>
-  <si>
-    <t>jenis nama</t>
+    <t>id_user</t>
+  </si>
+  <si>
+    <t>id_jabatan</t>
+  </si>
+  <si>
+    <t>nama_ lengkap</t>
+  </si>
+  <si>
+    <t>tanggal_ lahir</t>
+  </si>
+  <si>
+    <t>no_telepon</t>
+  </si>
+  <si>
+    <t>nama_jabatan</t>
+  </si>
+  <si>
+    <t>id_penjualan</t>
+  </si>
+  <si>
+    <t>penjualan_kode_transaksi</t>
+  </si>
+  <si>
+    <t>penjualan_total_harga</t>
+  </si>
+  <si>
+    <t>penjualan_waktu</t>
+  </si>
+  <si>
+    <t>id_penjualan_data</t>
+  </si>
+  <si>
+    <t>id_barang_data</t>
+  </si>
+  <si>
+    <t>penjualan_jumlah</t>
+  </si>
+  <si>
+    <t>id_pengadaan</t>
+  </si>
+  <si>
+    <t>id_suplier</t>
+  </si>
+  <si>
+    <t>pengadaan_kode_transaksi</t>
+  </si>
+  <si>
+    <t>pengadaan_waktu</t>
+  </si>
+  <si>
+    <t>suplier_nama</t>
+  </si>
+  <si>
+    <t>suplier_alamat</t>
+  </si>
+  <si>
+    <t>suplier_no_telp</t>
+  </si>
+  <si>
+    <t>suplier_email</t>
+  </si>
+  <si>
+    <t>suplier_tanggal_registrasi</t>
+  </si>
+  <si>
+    <t>suplier_kode</t>
+  </si>
+  <si>
+    <t>id_pengadaan_data</t>
+  </si>
+  <si>
+    <t>pengadaan_data_jumlah</t>
+  </si>
+  <si>
+    <t>id_barang_jenis</t>
+  </si>
+  <si>
+    <t>id_suplier_</t>
+  </si>
+  <si>
+    <t>barang_nama</t>
+  </si>
+  <si>
+    <t>barang_kode</t>
+  </si>
+  <si>
+    <t>barang_harga</t>
+  </si>
+  <si>
+    <t>barang_tanggal_kadaluarsa</t>
+  </si>
+  <si>
+    <t>barang_stok</t>
+  </si>
+  <si>
+    <t>barang_diskon</t>
+  </si>
+  <si>
+    <t>jenis_nama</t>
   </si>
 </sst>
 </file>
@@ -162,14 +165,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -183,18 +178,22 @@
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -221,17 +220,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -239,18 +237,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -531,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -550,10 +545,10 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>0</v>
@@ -565,22 +560,22 @@
         <v>2</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="I1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>5</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -630,10 +625,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,20 +638,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -668,7 +667,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,20 +680,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>11</v>
+      <c r="D1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -720,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,18 +730,18 @@
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>18</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -767,30 +766,31 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="C1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>22</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -817,7 +817,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection sqref="A1:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,26 +826,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="A1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>28</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -876,7 +876,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,17 +887,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>30</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -922,7 +922,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection sqref="A1:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -931,32 +931,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="A1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="G1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="H1" s="7" t="s">
         <v>38</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -988,29 +988,37 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>39</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
